--- a/metadata/plate_metadata/20250416_well_metadata.xlsx
+++ b/metadata/plate_metadata/20250416_well_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/YX1_imaging_plates/not-genotyped/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marazzanocolon/Documents/PhD Folder/morphSeq/YX1_imaging_plates/yes-genotyped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE58ACDD-2177-1444-8FBB-874BFAF4C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8786F-635C-054C-A853-528C39AF195C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="3" xr2:uid="{1D111BDF-EAD8-A94F-AA28-88CC9649B22F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" activeTab="2" xr2:uid="{1D111BDF-EAD8-A94F-AA28-88CC9649B22F}"/>
   </bookViews>
   <sheets>
     <sheet name="medium" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>  </t>
+  </si>
+  <si>
+    <t>cep290_unknown</t>
   </si>
 </sst>
 </file>
@@ -1619,11 +1622,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77E54D0-3682-084C-87D6-317C30F3BB42}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1">
@@ -1667,137 +1673,329 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -1814,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F99FE-D096-1C40-A0AC-66A53996EA64}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
